--- a/GitFYP_experiment/pytorch/UCI/SSL/result/scores.xlsx
+++ b/GitFYP_experiment/pytorch/UCI/SSL/result/scores.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.15056818181818</v>
+        <v>30.53977272727273</v>
       </c>
       <c r="B2" t="n">
-        <v>23.59636702360092</v>
+        <v>21.29976113786298</v>
       </c>
     </row>
   </sheetData>

--- a/GitFYP_experiment/pytorch/UCI/SSL/result/scores.xlsx
+++ b/GitFYP_experiment/pytorch/UCI/SSL/result/scores.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30.53977272727273</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="B2" t="n">
-        <v>21.29976113786298</v>
+        <v>16.53176912744991</v>
       </c>
     </row>
   </sheetData>
